--- a/report.xlsx
+++ b/report.xlsx
@@ -487,13 +487,13 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>2093</v>
+        <v>2109</v>
       </c>
       <c r="D4">
-        <v>1012</v>
+        <v>980</v>
       </c>
       <c r="E4">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="F4">
         <v>1479</v>
@@ -603,10 +603,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>2487</v>
+        <v>2495</v>
       </c>
       <c r="D8">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E8">
         <v>965</v>
@@ -751,13 +751,13 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="D4">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="E4">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="F4">
         <v>1111</v>
@@ -867,10 +867,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="D8">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="E8">
         <v>646</v>
@@ -1015,13 +1015,13 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D4">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>254</v>
@@ -1279,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>51</v>
